--- a/backend/fms_core/tests/valid_templates/Normalization_planning_v4_5_0_Genotyping_Tube.xlsx
+++ b/backend/fms_core/tests/valid_templates/Normalization_planning_v4_5_0_Genotyping_Tube.xlsx
@@ -144,10 +144,10 @@
     <t xml:space="preserve">Source Container Coord</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Barcode</t>
+    <t xml:space="preserve">Source Parent Container Barcode</t>
   </si>
   <si>
-    <t xml:space="preserve">Source Container Location Coord</t>
+    <t xml:space="preserve">Source Parent Container Coord</t>
   </si>
   <si>
     <t xml:space="preserve">Destination Container Barcode</t>
@@ -713,7 +713,7 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="24.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.86"/>
@@ -8370,7 +8370,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.74"/>
